--- a/documentation/Unit-Chart.xlsx
+++ b/documentation/Unit-Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavinfaulkner/Documents/GitHub/kriegsspiel/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A28DB2-0CFA-604B-A1F1-752914A2D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7638ADC4-0FD6-2544-9A30-B22234D1979B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="560" windowWidth="28040" windowHeight="16220" xr2:uid="{C594ABA3-314B-E647-A5CD-DCA8C47763AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C594ABA3-314B-E647-A5CD-DCA8C47763AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Army</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Move+Fire</t>
+  </si>
+  <si>
+    <t>Convert</t>
   </si>
 </sst>
 </file>
@@ -549,13 +552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E8BB8D-5D5A-1F4F-B438-D72CCDCD79FE}">
-  <dimension ref="A2:U28"/>
+  <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,22 +569,23 @@
     <col min="4" max="4" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -607,46 +611,49 @@
         <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -671,14 +678,14 @@
       <c r="H3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="P3" s="2">
-        <v>4</v>
-      </c>
-      <c r="U3" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Q3" s="2">
+        <v>4</v>
+      </c>
+      <c r="V3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -700,14 +707,14 @@
       <c r="H4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="2">
-        <v>6</v>
-      </c>
-      <c r="U4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2">
+        <v>8</v>
+      </c>
+      <c r="V4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -729,14 +736,14 @@
       <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="P5" s="2">
-        <v>4</v>
-      </c>
-      <c r="U5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Q5" s="2">
+        <v>4</v>
+      </c>
+      <c r="V5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -755,11 +762,14 @@
       <c r="H6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -778,11 +788,14 @@
       <c r="H7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -801,11 +814,14 @@
       <c r="H8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -816,19 +832,22 @@
         <v>10</v>
       </c>
       <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
         <v>12</v>
       </c>
-      <c r="H9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>12</v>
-      </c>
-      <c r="U9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -839,19 +858,22 @@
         <v>7</v>
       </c>
       <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
         <v>16</v>
       </c>
-      <c r="H10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>16</v>
-      </c>
-      <c r="U10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -862,19 +884,22 @@
         <v>5</v>
       </c>
       <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
         <v>20</v>
       </c>
-      <c r="H11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>20</v>
-      </c>
-      <c r="U11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -882,7 +907,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>1</v>
@@ -893,14 +918,14 @@
       <c r="H12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="P12" s="2">
-        <v>6</v>
-      </c>
-      <c r="U12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Q12" s="2">
+        <v>6</v>
+      </c>
+      <c r="V12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -916,26 +941,26 @@
       <c r="G13" s="2">
         <v>6</v>
       </c>
-      <c r="I13" s="2">
-        <v>6</v>
-      </c>
-      <c r="J13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="J13" s="2">
+        <v>6</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
         <v>12</v>
       </c>
-      <c r="N13" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="U13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P13" s="2">
+        <v>6</v>
+      </c>
+      <c r="V13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -948,20 +973,20 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="M14" s="2">
-        <v>4</v>
-      </c>
-      <c r="N14" s="2" t="b">
-        <v>1</v>
+      <c r="N14" s="2">
+        <v>4</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="U14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P14" s="2">
+        <v>6</v>
+      </c>
+      <c r="V14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -974,14 +999,14 @@
       <c r="G15" s="2">
         <v>4</v>
       </c>
-      <c r="O15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P15" s="2">
+        <v>6</v>
+      </c>
+      <c r="V15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -994,26 +1019,26 @@
       <c r="G16" s="2">
         <v>16</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>20</v>
       </c>
-      <c r="J16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="K16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
         <v>12</v>
       </c>
-      <c r="N16" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="U16" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P16" s="2">
+        <v>8</v>
+      </c>
+      <c r="V16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -1026,29 +1051,29 @@
       <c r="G17" s="2">
         <v>8</v>
       </c>
-      <c r="I17" s="2">
-        <v>10</v>
-      </c>
-      <c r="J17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="J17" s="2">
+        <v>10</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
         <v>12</v>
       </c>
-      <c r="N17" s="2" t="b">
-        <v>1</v>
-      </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q17" s="2">
-        <v>8</v>
-      </c>
-      <c r="U17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P17" s="2">
+        <v>10</v>
+      </c>
+      <c r="R17" s="2">
+        <v>8</v>
+      </c>
+      <c r="V17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -1061,26 +1086,26 @@
       <c r="G18" s="2">
         <v>12</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>16</v>
       </c>
-      <c r="J18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>6</v>
-      </c>
-      <c r="N18" s="2" t="b">
-        <v>1</v>
+      <c r="K18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>6</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="U18" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P18" s="2">
+        <v>8</v>
+      </c>
+      <c r="V18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -1093,26 +1118,26 @@
       <c r="G19" s="2">
         <v>12</v>
       </c>
-      <c r="J19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>8</v>
+      <c r="K19" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>8</v>
       </c>
-      <c r="N19" s="2" t="b">
-        <v>1</v>
+      <c r="N19" s="2">
+        <v>8</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="U19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P19" s="2">
+        <v>6</v>
+      </c>
+      <c r="V19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -1122,11 +1147,11 @@
       <c r="D20" s="2">
         <v>15</v>
       </c>
-      <c r="K20" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -1136,14 +1161,14 @@
       <c r="D21" s="2">
         <v>15</v>
       </c>
-      <c r="K21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="L21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1159,17 +1184,17 @@
       <c r="G22" s="2">
         <v>4</v>
       </c>
-      <c r="Q22" s="2">
-        <v>6</v>
-      </c>
-      <c r="T22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U22" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R22" s="2">
+        <v>6</v>
+      </c>
+      <c r="U22" s="2">
+        <v>6</v>
+      </c>
+      <c r="V22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -1182,17 +1207,17 @@
       <c r="G23" s="2">
         <v>6</v>
       </c>
-      <c r="Q23" s="2">
-        <v>6</v>
-      </c>
-      <c r="T23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U23" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R23" s="2">
+        <v>6</v>
+      </c>
+      <c r="U23" s="2">
+        <v>8</v>
+      </c>
+      <c r="V23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -1205,20 +1230,20 @@
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="I24" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>8</v>
-      </c>
-      <c r="R24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U24" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J24" s="2">
+        <v>8</v>
+      </c>
+      <c r="R24" s="2">
+        <v>8</v>
+      </c>
+      <c r="S24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>27</v>
       </c>
@@ -1231,20 +1256,20 @@
       <c r="G25" s="2">
         <v>4</v>
       </c>
-      <c r="I25" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>8</v>
-      </c>
-      <c r="R25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U25" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J25" s="2">
+        <v>6</v>
+      </c>
+      <c r="R25" s="2">
+        <v>8</v>
+      </c>
+      <c r="S25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -1254,14 +1279,17 @@
       <c r="D26" s="2">
         <v>20</v>
       </c>
+      <c r="F26" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="G26" s="2">
         <v>4</v>
       </c>
-      <c r="U26" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>45</v>
       </c>
@@ -1274,14 +1302,14 @@
       <c r="G27" s="2">
         <v>4</v>
       </c>
-      <c r="S27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U27" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -1294,10 +1322,10 @@
       <c r="G28" s="2">
         <v>4</v>
       </c>
-      <c r="I28" s="2">
-        <v>10</v>
-      </c>
-      <c r="U28" s="2" t="b">
+      <c r="J28" s="2">
+        <v>10</v>
+      </c>
+      <c r="V28" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/documentation/Unit-Chart.xlsx
+++ b/documentation/Unit-Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavinfaulkner/Documents/GitHub/kriegsspiel/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7638ADC4-0FD6-2544-9A30-B22234D1979B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08978FA6-0907-1248-895D-7C42CE036D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C594ABA3-314B-E647-A5CD-DCA8C47763AE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="15720" xr2:uid="{C594ABA3-314B-E647-A5CD-DCA8C47763AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,10 +555,10 @@
   <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,6 +1147,9 @@
       <c r="D20" s="2">
         <v>15</v>
       </c>
+      <c r="E20" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="L20" s="2" t="b">
         <v>1</v>
       </c>
@@ -1161,6 +1164,9 @@
       <c r="D21" s="2">
         <v>15</v>
       </c>
+      <c r="E21" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="L21" s="2" t="b">
         <v>1</v>
       </c>
@@ -1253,6 +1259,9 @@
       <c r="D25" s="2">
         <v>10</v>
       </c>
+      <c r="E25" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="G25" s="2">
         <v>4</v>
       </c>
@@ -1279,6 +1288,9 @@
       <c r="D26" s="2">
         <v>20</v>
       </c>
+      <c r="E26" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="F26" s="2" t="b">
         <v>1</v>
       </c>
@@ -1318,6 +1330,12 @@
       </c>
       <c r="D28" s="2">
         <v>30</v>
+      </c>
+      <c r="E28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>

--- a/documentation/Unit-Chart.xlsx
+++ b/documentation/Unit-Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavinfaulkner/Documents/GitHub/kriegsspiel/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08978FA6-0907-1248-895D-7C42CE036D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A524475E-E192-CB44-9709-D56B413B4F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="15720" xr2:uid="{C594ABA3-314B-E647-A5CD-DCA8C47763AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{C594ABA3-314B-E647-A5CD-DCA8C47763AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Army</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Hide</t>
   </si>
   <si>
-    <t>Spy</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
@@ -187,6 +184,12 @@
   </si>
   <si>
     <t>Convert</t>
+  </si>
+  <si>
+    <t>Nuke</t>
+  </si>
+  <si>
+    <t>Spy/Survey</t>
   </si>
 </sst>
 </file>
@@ -552,13 +555,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E8BB8D-5D5A-1F4F-B438-D72CCDCD79FE}">
-  <dimension ref="A2:V28"/>
+  <dimension ref="A2:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,7 +570,8 @@
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
@@ -577,15 +581,16 @@
     <col min="14" max="14" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
@@ -602,58 +607,61 @@
         <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -678,14 +686,14 @@
       <c r="H3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" s="2">
-        <v>4</v>
-      </c>
-      <c r="V3" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R3" s="2">
+        <v>4</v>
+      </c>
+      <c r="W3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -707,14 +715,14 @@
       <c r="H4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="2">
-        <v>8</v>
-      </c>
-      <c r="V4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R4" s="2">
+        <v>8</v>
+      </c>
+      <c r="W4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -736,14 +744,14 @@
       <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" s="2">
-        <v>4</v>
-      </c>
-      <c r="V5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R5" s="2">
+        <v>4</v>
+      </c>
+      <c r="W5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -769,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -795,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -821,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -843,11 +851,11 @@
       <c r="J9" s="2">
         <v>12</v>
       </c>
-      <c r="V9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -869,11 +877,11 @@
       <c r="J10" s="2">
         <v>16</v>
       </c>
-      <c r="V10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -895,11 +903,11 @@
       <c r="J11" s="2">
         <v>20</v>
       </c>
-      <c r="V11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -918,14 +926,14 @@
       <c r="H12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q12" s="2">
-        <v>6</v>
-      </c>
-      <c r="V12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R12" s="2">
+        <v>6</v>
+      </c>
+      <c r="W12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -956,11 +964,11 @@
       <c r="P13" s="2">
         <v>6</v>
       </c>
-      <c r="V13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -982,11 +990,11 @@
       <c r="P14" s="2">
         <v>6</v>
       </c>
-      <c r="V14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -1002,11 +1010,11 @@
       <c r="P15" s="2">
         <v>6</v>
       </c>
-      <c r="V15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -1034,11 +1042,11 @@
       <c r="P16" s="2">
         <v>8</v>
       </c>
-      <c r="V16" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -1066,14 +1074,14 @@
       <c r="P17" s="2">
         <v>10</v>
       </c>
-      <c r="R17" s="2">
-        <v>8</v>
-      </c>
-      <c r="V17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S17" s="2">
+        <v>8</v>
+      </c>
+      <c r="W17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -1101,11 +1109,11 @@
       <c r="P18" s="2">
         <v>8</v>
       </c>
-      <c r="V18" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -1133,11 +1141,11 @@
       <c r="P19" s="2">
         <v>6</v>
       </c>
-      <c r="V19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -1154,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -1170,11 +1178,14 @@
       <c r="L21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="R21" s="2">
+      <c r="Q21" s="2">
+        <v>30</v>
+      </c>
+      <c r="S21" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1190,17 +1201,17 @@
       <c r="G22" s="2">
         <v>4</v>
       </c>
-      <c r="R22" s="2">
-        <v>6</v>
-      </c>
-      <c r="U22" s="2">
-        <v>6</v>
-      </c>
-      <c r="V22" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S22" s="2">
+        <v>6</v>
+      </c>
+      <c r="V22" s="2">
+        <v>6</v>
+      </c>
+      <c r="W22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -1213,17 +1224,17 @@
       <c r="G23" s="2">
         <v>6</v>
       </c>
-      <c r="R23" s="2">
-        <v>6</v>
-      </c>
-      <c r="U23" s="2">
-        <v>8</v>
-      </c>
-      <c r="V23" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S23" s="2">
+        <v>6</v>
+      </c>
+      <c r="V23" s="2">
+        <v>8</v>
+      </c>
+      <c r="W23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -1239,17 +1250,17 @@
       <c r="J24" s="2">
         <v>8</v>
       </c>
-      <c r="R24" s="2">
-        <v>8</v>
-      </c>
-      <c r="S24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V24" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S24" s="2">
+        <v>8</v>
+      </c>
+      <c r="T24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>27</v>
       </c>
@@ -1268,17 +1279,20 @@
       <c r="J25" s="2">
         <v>6</v>
       </c>
-      <c r="R25" s="2">
-        <v>8</v>
-      </c>
-      <c r="S25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V25" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q25" s="2">
+        <v>16</v>
+      </c>
+      <c r="S25" s="2">
+        <v>8</v>
+      </c>
+      <c r="T25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -1297,13 +1311,13 @@
       <c r="G26" s="2">
         <v>4</v>
       </c>
-      <c r="V26" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2">
         <v>12</v>
@@ -1314,14 +1328,14 @@
       <c r="G27" s="2">
         <v>4</v>
       </c>
-      <c r="T27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V27" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -1343,7 +1357,7 @@
       <c r="J28" s="2">
         <v>10</v>
       </c>
-      <c r="V28" s="2" t="b">
+      <c r="W28" s="2" t="b">
         <v>1</v>
       </c>
     </row>
